--- a/DataSet/WindPowerProductionUS/wind-power-production-us.xlsx
+++ b/DataSet/WindPowerProductionUS/wind-power-production-us.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rutgers\MS-Rutgers\BusinessForecasting\Assignments\Assignment2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rutgers\MS-Rutgers\BusinessForecasting\DataSet\WindPowerProduction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337478CD-770E-43EE-B51D-30D813019751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314DE8FF-2D25-489C-B1FC-2871684F339E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1218634C-2DA0-40D7-A014-0CFEEFDB1EF0}"/>
   </bookViews>
@@ -765,12 +765,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E96012-F7EE-4CD4-9FA4-D1C4C433B9A8}">
   <dimension ref="A1:DU91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" customWidth="1"/>
     <col min="3" max="3" width="28.88671875" customWidth="1"/>
   </cols>
@@ -1531,7 +1532,7 @@
     </row>
     <row r="3" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>36895</v>
+        <v>36982</v>
       </c>
       <c r="B3">
         <v>17529</v>
@@ -1908,7 +1909,7 @@
     </row>
     <row r="4" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>36898</v>
+        <v>37073</v>
       </c>
       <c r="B4">
         <v>18307</v>
@@ -2285,7 +2286,7 @@
     </row>
     <row r="5" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>36901</v>
+        <v>37165</v>
       </c>
       <c r="B5">
         <v>17802</v>
@@ -3039,7 +3040,7 @@
     </row>
     <row r="7" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>37260</v>
+        <v>37347</v>
       </c>
       <c r="B7">
         <v>20368</v>
@@ -3416,7 +3417,7 @@
     </row>
     <row r="8" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>37263</v>
+        <v>37438</v>
       </c>
       <c r="B8">
         <v>20682</v>
@@ -3793,7 +3794,7 @@
     </row>
     <row r="9" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>37266</v>
+        <v>37530</v>
       </c>
       <c r="B9">
         <v>19306</v>
@@ -4547,7 +4548,7 @@
     </row>
     <row r="11" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>37625</v>
+        <v>37712</v>
       </c>
       <c r="B11">
         <v>19825</v>
@@ -4924,7 +4925,7 @@
     </row>
     <row r="12" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>37628</v>
+        <v>37803</v>
       </c>
       <c r="B12">
         <v>20336</v>
@@ -5301,7 +5302,7 @@
     </row>
     <row r="13" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>37631</v>
+        <v>37895</v>
       </c>
       <c r="B13">
         <v>20145</v>
@@ -6055,7 +6056,7 @@
     </row>
     <row r="15" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>37990</v>
+        <v>38078</v>
       </c>
       <c r="B15">
         <v>21333</v>
@@ -6432,7 +6433,7 @@
     </row>
     <row r="16" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>37993</v>
+        <v>38169</v>
       </c>
       <c r="B16">
         <v>20990</v>
@@ -6809,7 +6810,7 @@
     </row>
     <row r="17" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>37996</v>
+        <v>38261</v>
       </c>
       <c r="B17">
         <v>20367</v>
@@ -7563,7 +7564,7 @@
     </row>
     <row r="19" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>38356</v>
+        <v>38443</v>
       </c>
       <c r="B19">
         <v>22381</v>
@@ -7940,7 +7941,7 @@
     </row>
     <row r="20" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>38359</v>
+        <v>38534</v>
       </c>
       <c r="B20">
         <v>22095</v>
@@ -8317,7 +8318,7 @@
     </row>
     <row r="21" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>38362</v>
+        <v>38626</v>
       </c>
       <c r="B21">
         <v>22260</v>
@@ -9071,7 +9072,7 @@
     </row>
     <row r="23" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>38721</v>
+        <v>38808</v>
       </c>
       <c r="B23">
         <v>23678</v>
@@ -9448,7 +9449,7 @@
     </row>
     <row r="24" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>38724</v>
+        <v>38899</v>
       </c>
       <c r="B24">
         <v>23736</v>
@@ -9825,7 +9826,7 @@
     </row>
     <row r="25" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>38727</v>
+        <v>38991</v>
       </c>
       <c r="B25">
         <v>25104</v>
@@ -10579,7 +10580,7 @@
     </row>
     <row r="27" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>39086</v>
+        <v>39173</v>
       </c>
       <c r="B27">
         <v>25863</v>
@@ -10956,7 +10957,7 @@
     </row>
     <row r="28" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>39089</v>
+        <v>39264</v>
       </c>
       <c r="B28">
         <v>26109</v>
@@ -11333,7 +11334,7 @@
     </row>
     <row r="29" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>39092</v>
+        <v>39356</v>
       </c>
       <c r="B29">
         <v>27943</v>
@@ -12087,7 +12088,7 @@
     </row>
     <row r="31" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>39451</v>
+        <v>39539</v>
       </c>
       <c r="B31">
         <v>33216</v>
@@ -12464,7 +12465,7 @@
     </row>
     <row r="32" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>39454</v>
+        <v>39630</v>
       </c>
       <c r="B32">
         <v>28771</v>
@@ -12841,7 +12842,7 @@
     </row>
     <row r="33" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>39457</v>
+        <v>39722</v>
       </c>
       <c r="B33">
         <v>33820</v>
@@ -13595,7 +13596,7 @@
     </row>
     <row r="35" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>39817</v>
+        <v>39904</v>
       </c>
       <c r="B35">
         <v>36318</v>
@@ -13972,7 +13973,7 @@
     </row>
     <row r="36" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>39820</v>
+        <v>39995</v>
       </c>
       <c r="B36">
         <v>33502</v>
@@ -14349,7 +14350,7 @@
     </row>
     <row r="37" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>39823</v>
+        <v>40087</v>
       </c>
       <c r="B37">
         <v>38539</v>
@@ -15103,7 +15104,7 @@
     </row>
     <row r="39" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>40182</v>
+        <v>40269</v>
       </c>
       <c r="B39">
         <v>44447</v>
@@ -15480,7 +15481,7 @@
     </row>
     <row r="40" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>40185</v>
+        <v>40360</v>
       </c>
       <c r="B40">
         <v>39435</v>
@@ -15857,7 +15858,7 @@
     </row>
     <row r="41" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>40188</v>
+        <v>40452</v>
       </c>
       <c r="B41">
         <v>44932</v>
@@ -16611,7 +16612,7 @@
     </row>
     <row r="43" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>40547</v>
+        <v>40634</v>
       </c>
       <c r="B43">
         <v>53047</v>
@@ -16988,7 +16989,7 @@
     </row>
     <row r="44" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>40550</v>
+        <v>40725</v>
       </c>
       <c r="B44">
         <v>41102</v>
@@ -17365,7 +17366,7 @@
     </row>
     <row r="45" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>40553</v>
+        <v>40817</v>
       </c>
       <c r="B45">
         <v>52325</v>
@@ -18119,7 +18120,7 @@
     </row>
     <row r="47" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>40912</v>
+        <v>41000</v>
       </c>
       <c r="B47">
         <v>55931</v>
@@ -18496,7 +18497,7 @@
     </row>
     <row r="48" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>40915</v>
+        <v>41091</v>
       </c>
       <c r="B48">
         <v>46458</v>
@@ -18873,7 +18874,7 @@
     </row>
     <row r="49" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>40918</v>
+        <v>41183</v>
       </c>
       <c r="B49">
         <v>58843</v>
@@ -19627,7 +19628,7 @@
     </row>
     <row r="51" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>41278</v>
+        <v>41365</v>
       </c>
       <c r="B51">
         <v>68169</v>
@@ -20004,7 +20005,7 @@
     </row>
     <row r="52" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>41281</v>
+        <v>41456</v>
       </c>
       <c r="B52">
         <v>54966</v>
@@ -20381,7 +20382,7 @@
     </row>
     <row r="53" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>41284</v>
+        <v>41548</v>
       </c>
       <c r="B53">
         <v>65714</v>
@@ -21135,7 +21136,7 @@
     </row>
     <row r="55" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>41643</v>
+        <v>41730</v>
       </c>
       <c r="B55">
         <v>74762</v>
@@ -21512,7 +21513,7 @@
     </row>
     <row r="56" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>41646</v>
+        <v>41821</v>
       </c>
       <c r="B56">
         <v>59958</v>
@@ -21889,7 +21890,7 @@
     </row>
     <row r="57" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>41649</v>
+        <v>41913</v>
       </c>
       <c r="B57">
         <v>72147</v>
@@ -22643,7 +22644,7 @@
     </row>
     <row r="59" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>42008</v>
+        <v>42095</v>
       </c>
       <c r="B59">
         <v>75237</v>
@@ -23020,7 +23021,7 @@
     </row>
     <row r="60" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>42011</v>
+        <v>42186</v>
       </c>
       <c r="B60">
         <v>68923</v>
@@ -23397,7 +23398,7 @@
     </row>
     <row r="61" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>42014</v>
+        <v>42278</v>
       </c>
       <c r="B61">
         <v>81375</v>
@@ -24151,7 +24152,7 @@
     </row>
     <row r="63" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>42373</v>
+        <v>42461</v>
       </c>
       <c r="B63">
         <v>84614</v>
@@ -24528,7 +24529,7 @@
     </row>
     <row r="64" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>42376</v>
+        <v>42552</v>
       </c>
       <c r="B64">
         <v>79367</v>
@@ -24905,7 +24906,7 @@
     </row>
     <row r="65" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>42379</v>
+        <v>42644</v>
       </c>
       <c r="B65">
         <v>91151</v>
@@ -25659,7 +25660,7 @@
     </row>
     <row r="67" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>42739</v>
+        <v>42826</v>
       </c>
       <c r="B67">
         <v>104481</v>
@@ -26036,7 +26037,7 @@
     </row>
     <row r="68" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>42742</v>
+        <v>42917</v>
       </c>
       <c r="B68">
         <v>84071</v>
@@ -26413,7 +26414,7 @@
     </row>
     <row r="69" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>42745</v>
+        <v>43009</v>
       </c>
       <c r="B69">
         <v>99869</v>
@@ -27167,7 +27168,7 @@
     </row>
     <row r="71" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>43104</v>
+        <v>43191</v>
       </c>
       <c r="B71">
         <v>114379</v>
@@ -27544,7 +27545,7 @@
     </row>
     <row r="72" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>43107</v>
+        <v>43282</v>
       </c>
       <c r="B72">
         <v>94045</v>
@@ -27921,7 +27922,7 @@
     </row>
     <row r="73" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>43110</v>
+        <v>43374</v>
       </c>
       <c r="B73">
         <v>98539</v>
@@ -28675,7 +28676,7 @@
     </row>
     <row r="75" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>43469</v>
+        <v>43556</v>
       </c>
       <c r="B75">
         <v>116621</v>
@@ -29052,7 +29053,7 @@
     </row>
     <row r="76" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>43472</v>
+        <v>43647</v>
       </c>
       <c r="B76">
         <v>108585</v>
@@ -29429,7 +29430,7 @@
     </row>
     <row r="77" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>43475</v>
+        <v>43739</v>
       </c>
       <c r="B77">
         <v>110958</v>
@@ -30183,7 +30184,7 @@
     </row>
     <row r="79" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>43834</v>
+        <v>43922</v>
       </c>
       <c r="B79">
         <v>132775</v>
@@ -30560,7 +30561,7 @@
     </row>
     <row r="80" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>43837</v>
+        <v>44013</v>
       </c>
       <c r="B80">
         <v>114344</v>
@@ -30937,7 +30938,7 @@
     </row>
     <row r="81" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>43840</v>
+        <v>44105</v>
       </c>
       <c r="B81">
         <v>129426</v>
@@ -31691,7 +31692,7 @@
     </row>
     <row r="83" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>44200</v>
+        <v>44287</v>
       </c>
       <c r="B83">
         <v>149349</v>
@@ -32068,7 +32069,7 @@
     </row>
     <row r="84" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>44203</v>
+        <v>44378</v>
       </c>
       <c r="B84">
         <v>131159</v>
@@ -32445,7 +32446,7 @@
     </row>
     <row r="85" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>44206</v>
+        <v>44470</v>
       </c>
       <c r="B85">
         <v>148366</v>
@@ -33199,7 +33200,7 @@
     </row>
     <row r="87" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>44565</v>
+        <v>44652</v>
       </c>
       <c r="B87">
         <v>183203</v>
@@ -33576,7 +33577,7 @@
     </row>
     <row r="88" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>44568</v>
+        <v>44743</v>
       </c>
       <c r="B88">
         <v>142612</v>
@@ -33953,7 +33954,7 @@
     </row>
     <row r="89" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>44571</v>
+        <v>44835</v>
       </c>
       <c r="B89">
         <v>159017</v>
@@ -34707,7 +34708,7 @@
     </row>
     <row r="91" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>44930</v>
+        <v>45017</v>
       </c>
       <c r="B91">
         <v>167867</v>
